--- a/data/Luminex Data.xlsx
+++ b/data/Luminex Data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteph16\Documents\GitHub\ObesityParticulateTreatment\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -15,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fasted!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="20">
   <si>
     <t>Mouse</t>
   </si>
@@ -82,6 +87,9 @@
   </si>
   <si>
     <t>Saline-Fed</t>
+  </si>
+  <si>
+    <t>Insulin.pmol.L</t>
   </si>
 </sst>
 </file>
@@ -936,7 +944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,9 +958,9 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -984,7 +992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>203</v>
       </c>
@@ -1016,7 +1024,7 @@
         <v>1098.317</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>204</v>
       </c>
@@ -1048,7 +1056,7 @@
         <v>963.89880000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>206</v>
       </c>
@@ -1080,7 +1088,7 @@
         <v>452.99740000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>207</v>
       </c>
@@ -1112,7 +1120,7 @@
         <v>1029.605</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>208</v>
       </c>
@@ -1144,7 +1152,7 @@
         <v>922.27499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>209</v>
       </c>
@@ -1176,7 +1184,7 @@
         <v>573.7432</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>214</v>
       </c>
@@ -1208,7 +1216,7 @@
         <v>1058.03</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>250</v>
       </c>
@@ -1240,7 +1248,7 @@
         <v>1656.883</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2500</v>
       </c>
@@ -1272,7 +1280,7 @@
         <v>833.31600000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>300</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>1304.3610000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>276</v>
       </c>
@@ -1336,7 +1344,7 @@
         <v>905.49749999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>277</v>
       </c>
@@ -1368,7 +1376,7 @@
         <v>901.29139999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>278</v>
       </c>
@@ -1400,7 +1408,7 @@
         <v>1181.778</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>279</v>
       </c>
@@ -1432,7 +1440,7 @@
         <v>816.11350000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>280</v>
       </c>
@@ -1464,7 +1472,7 @@
         <v>1554.52</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>281</v>
       </c>
@@ -1496,7 +1504,7 @@
         <v>934.80960000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>290</v>
       </c>
@@ -1528,7 +1536,7 @@
         <v>608.72670000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>291</v>
       </c>
@@ -1560,7 +1568,7 @@
         <v>1033.6780000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>292</v>
       </c>
@@ -1592,7 +1600,7 @@
         <v>417.81619999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>293</v>
       </c>
@@ -1624,7 +1632,7 @@
         <v>918.08780000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>294</v>
       </c>
@@ -1656,7 +1664,7 @@
         <v>1561.885</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>297</v>
       </c>
@@ -1688,7 +1696,7 @@
         <v>892.86469999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>298</v>
       </c>
@@ -1720,7 +1728,7 @@
         <v>1130.288</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>202</v>
       </c>
@@ -1752,7 +1760,7 @@
         <v>2895.3359999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>201</v>
       </c>
@@ -1784,7 +1792,7 @@
         <v>3138.2829999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>203</v>
       </c>
@@ -1816,7 +1824,7 @@
         <v>3591.6109999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>204</v>
       </c>
@@ -1848,7 +1856,7 @@
         <v>10128.68</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>206</v>
       </c>
@@ -1880,7 +1888,7 @@
         <v>1411.002</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>207</v>
       </c>
@@ -1912,7 +1920,7 @@
         <v>11304.62</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>208</v>
       </c>
@@ -1944,7 +1952,7 @@
         <v>6544.2020000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>209</v>
       </c>
@@ -1976,7 +1984,7 @@
         <v>9439.5810000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>214</v>
       </c>
@@ -2008,7 +2016,7 @@
         <v>10145.040000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>250</v>
       </c>
@@ -2040,7 +2048,7 @@
         <v>6902.6670000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2500</v>
       </c>
@@ -2072,7 +2080,7 @@
         <v>7826.0219999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201</v>
       </c>
@@ -2104,7 +2112,7 @@
         <v>1352.221</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>202</v>
       </c>
@@ -2136,7 +2144,7 @@
         <v>752.98569999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>300</v>
       </c>
@@ -2168,7 +2176,7 @@
         <v>3699.3690000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>276</v>
       </c>
@@ -2200,7 +2208,7 @@
         <v>2414.9989999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>277</v>
       </c>
@@ -2232,7 +2240,7 @@
         <v>6429.7439999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>278</v>
       </c>
@@ -2264,7 +2272,7 @@
         <v>7084.0240000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>279</v>
       </c>
@@ -2296,7 +2304,7 @@
         <v>2893.7539999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>280</v>
       </c>
@@ -2328,7 +2336,7 @@
         <v>18074</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>281</v>
       </c>
@@ -2360,7 +2368,7 @@
         <v>2850.9270000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>290</v>
       </c>
@@ -2392,7 +2400,7 @@
         <v>2518.7080000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>291</v>
       </c>
@@ -2424,7 +2432,7 @@
         <v>3594.6149999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>292</v>
       </c>
@@ -2456,7 +2464,7 @@
         <v>4963.0550000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>293</v>
       </c>
@@ -2488,7 +2496,7 @@
         <v>3537.4349999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>294</v>
       </c>
@@ -2520,7 +2528,7 @@
         <v>3782.6550000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>297</v>
       </c>
@@ -2552,7 +2560,7 @@
         <v>14600.37</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>298</v>
       </c>
@@ -2596,15 +2604,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2638,8 +2646,11 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>202</v>
       </c>
@@ -2673,8 +2684,11 @@
       <c r="K2">
         <v>2895.3359999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>498.5082644628099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>201</v>
       </c>
@@ -2708,8 +2722,11 @@
       <c r="K3">
         <v>3138.2829999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>540.33798209366387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>203</v>
       </c>
@@ -2743,8 +2760,11 @@
       <c r="K4">
         <v>3591.6109999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>618.39032369146003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>204</v>
       </c>
@@ -2778,8 +2798,11 @@
       <c r="K5">
         <v>10128.68</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>1743.918732782369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>206</v>
       </c>
@@ -2813,8 +2836,11 @@
       <c r="K6">
         <v>1411.002</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>242.94111570247935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>207</v>
       </c>
@@ -2848,8 +2874,11 @@
       <c r="K7">
         <v>11304.62</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>1946.3877410468319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>208</v>
       </c>
@@ -2883,8 +2912,11 @@
       <c r="K8">
         <v>6544.2020000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>1126.7565426997246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>209</v>
       </c>
@@ -2918,8 +2950,11 @@
       <c r="K9">
         <v>9439.5810000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>1625.2722107438017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>214</v>
       </c>
@@ -2953,8 +2988,11 @@
       <c r="K10">
         <v>10145.040000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>1746.7355371900828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
@@ -2988,8 +3026,11 @@
       <c r="K11">
         <v>6902.6670000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>1188.4757231404958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2500</v>
       </c>
@@ -3023,8 +3064,11 @@
       <c r="K12">
         <v>7826.0219999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>1347.4555785123966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>201</v>
       </c>
@@ -3058,8 +3102,11 @@
       <c r="K13">
         <v>1352.221</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>232.82042011019283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>202</v>
       </c>
@@ -3093,8 +3140,11 @@
       <c r="K14">
         <v>752.98569999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>129.64629820936639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>300</v>
       </c>
@@ -3128,8 +3178,11 @@
       <c r="K15">
         <v>3699.3690000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>636.94369834710756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>276</v>
       </c>
@@ -3163,8 +3216,11 @@
       <c r="K16">
         <v>2414.9989999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>415.8056129476584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>277</v>
       </c>
@@ -3198,8 +3254,11 @@
       <c r="K17">
         <v>6429.7439999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>1107.0495867768595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>278</v>
       </c>
@@ -3233,8 +3292,11 @@
       <c r="K18">
         <v>7084.0240000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>1219.7011019283748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>279</v>
       </c>
@@ -3268,8 +3330,11 @@
       <c r="K19">
         <v>2893.7539999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>498.2358815426997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>280</v>
       </c>
@@ -3303,8 +3368,11 @@
       <c r="K20">
         <v>18074</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>3111.9146005509642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>281</v>
       </c>
@@ -3338,8 +3406,11 @@
       <c r="K21">
         <v>2850.9270000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>490.86208677685954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>290</v>
       </c>
@@ -3373,8 +3444,11 @@
       <c r="K22">
         <v>2518.7080000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>433.66184573002761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>291</v>
       </c>
@@ -3408,8 +3482,11 @@
       <c r="K23">
         <v>3594.6149999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>618.90754132231393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>292</v>
       </c>
@@ -3443,8 +3520,11 @@
       <c r="K24">
         <v>4963.0550000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>854.52048898071632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>293</v>
       </c>
@@ -3478,8 +3558,11 @@
       <c r="K25">
         <v>3537.4349999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>609.0625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>294</v>
       </c>
@@ -3513,8 +3596,11 @@
       <c r="K26">
         <v>3782.6550000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>651.28357438016542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>297</v>
       </c>
@@ -3548,8 +3634,11 @@
       <c r="K27">
         <v>14600.37</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>2513.8378099173556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>298</v>
       </c>
@@ -3583,8 +3672,11 @@
       <c r="K28">
         <v>3567.558</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>614.24896694214885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>203</v>
       </c>
@@ -3618,8 +3710,11 @@
       <c r="K29">
         <v>1098.317</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>189.10416666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>204</v>
       </c>
@@ -3653,8 +3748,11 @@
       <c r="K30">
         <v>963.89880000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>165.96053719008268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>206</v>
       </c>
@@ -3688,8 +3786,11 @@
       <c r="K31">
         <v>452.99740000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>77.995420110192839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>207</v>
       </c>
@@ -3723,8 +3824,11 @@
       <c r="K32">
         <v>1029.605</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>177.27358815426996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>208</v>
       </c>
@@ -3758,8 +3862,11 @@
       <c r="K33">
         <v>922.27499999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>158.79390495867767</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>209</v>
       </c>
@@ -3793,8 +3900,11 @@
       <c r="K34">
         <v>573.7432</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>98.784986225895324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>214</v>
       </c>
@@ -3828,8 +3938,11 @@
       <c r="K35">
         <v>1058.03</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>182.16769972451792</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>250</v>
       </c>
@@ -3863,8 +3976,11 @@
       <c r="K36">
         <v>1656.883</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>285.2759986225895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2500</v>
       </c>
@@ -3898,8 +4014,11 @@
       <c r="K37">
         <v>833.31600000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>143.47727272727272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>300</v>
       </c>
@@ -3933,8 +4052,11 @@
       <c r="K38">
         <v>1304.3610000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>224.58006198347107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>276</v>
       </c>
@@ -3968,8 +4090,11 @@
       <c r="K39">
         <v>905.49749999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>155.90521694214877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>277</v>
       </c>
@@ -4003,8 +4128,11 @@
       <c r="K40">
         <v>901.29139999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>155.1810261707989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>278</v>
       </c>
@@ -4038,8 +4166,11 @@
       <c r="K41">
         <v>1181.778</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>203.47417355371903</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>279</v>
       </c>
@@ -4073,8 +4204,11 @@
       <c r="K42">
         <v>816.11350000000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>140.51540977961432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>280</v>
       </c>
@@ -4108,8 +4242,11 @@
       <c r="K43">
         <v>1554.52</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>267.65151515151513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>281</v>
       </c>
@@ -4143,8 +4280,11 @@
       <c r="K44">
         <v>934.80960000000005</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>160.95206611570248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>290</v>
       </c>
@@ -4178,8 +4318,11 @@
       <c r="K45">
         <v>608.72670000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>104.80831611570248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>291</v>
       </c>
@@ -4213,8 +4356,11 @@
       <c r="K46">
         <v>1033.6780000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>177.97486225895318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>292</v>
       </c>
@@ -4248,8 +4394,11 @@
       <c r="K47">
         <v>417.81619999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>71.938050964187326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>293</v>
       </c>
@@ -4283,8 +4432,11 @@
       <c r="K48">
         <v>918.08780000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>158.07296831955921</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>294</v>
       </c>
@@ -4318,8 +4470,11 @@
       <c r="K49">
         <v>1561.885</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>268.91959366391183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>297</v>
       </c>
@@ -4353,8 +4508,11 @@
       <c r="K50">
         <v>892.86469999999997</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>153.73014807162534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>298</v>
       </c>
@@ -4387,6 +4545,9 @@
       </c>
       <c r="K51">
         <v>1130.288</v>
+      </c>
+      <c r="L51">
+        <v>194.60881542699724</v>
       </c>
     </row>
   </sheetData>
@@ -4407,13 +4568,13 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4448,7 +4609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>203</v>
       </c>
@@ -4483,7 +4644,7 @@
         <v>1098.317</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>204</v>
       </c>
@@ -4518,7 +4679,7 @@
         <v>963.89880000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>206</v>
       </c>
@@ -4553,7 +4714,7 @@
         <v>452.99740000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>207</v>
       </c>
@@ -4588,7 +4749,7 @@
         <v>1029.605</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>208</v>
       </c>
@@ -4623,7 +4784,7 @@
         <v>922.27499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>209</v>
       </c>
@@ -4658,7 +4819,7 @@
         <v>573.7432</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>214</v>
       </c>
@@ -4693,7 +4854,7 @@
         <v>1058.03</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>250</v>
       </c>
@@ -4728,7 +4889,7 @@
         <v>1656.883</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2500</v>
       </c>
@@ -4763,7 +4924,7 @@
         <v>833.31600000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>300</v>
       </c>
@@ -4798,7 +4959,7 @@
         <v>1304.3610000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>276</v>
       </c>
@@ -4833,7 +4994,7 @@
         <v>905.49749999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>277</v>
       </c>
@@ -4868,7 +5029,7 @@
         <v>901.29139999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>278</v>
       </c>
@@ -4903,7 +5064,7 @@
         <v>1181.778</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>279</v>
       </c>
@@ -4938,7 +5099,7 @@
         <v>816.11350000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>280</v>
       </c>
@@ -4973,7 +5134,7 @@
         <v>1554.52</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>281</v>
       </c>
@@ -5008,7 +5169,7 @@
         <v>934.80960000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>290</v>
       </c>
@@ -5043,7 +5204,7 @@
         <v>608.72670000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>291</v>
       </c>
@@ -5078,7 +5239,7 @@
         <v>1033.6780000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>292</v>
       </c>
@@ -5113,7 +5274,7 @@
         <v>417.81619999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>293</v>
       </c>
@@ -5148,7 +5309,7 @@
         <v>918.08780000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>294</v>
       </c>
@@ -5183,7 +5344,7 @@
         <v>1561.885</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>297</v>
       </c>
@@ -5218,7 +5379,7 @@
         <v>892.86469999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>298</v>
       </c>
@@ -5277,9 +5438,9 @@
       <selection activeCell="A2" sqref="A2:K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5314,7 +5475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>202</v>
       </c>
@@ -5349,7 +5510,7 @@
         <v>2895.3359999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>201</v>
       </c>
@@ -5384,7 +5545,7 @@
         <v>3138.2829999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>203</v>
       </c>
@@ -5419,7 +5580,7 @@
         <v>3591.6109999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>204</v>
       </c>
@@ -5454,7 +5615,7 @@
         <v>10128.68</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>206</v>
       </c>
@@ -5489,7 +5650,7 @@
         <v>1411.002</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>207</v>
       </c>
@@ -5524,7 +5685,7 @@
         <v>11304.62</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>208</v>
       </c>
@@ -5559,7 +5720,7 @@
         <v>6544.2020000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>209</v>
       </c>
@@ -5594,7 +5755,7 @@
         <v>9439.5810000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>214</v>
       </c>
@@ -5629,7 +5790,7 @@
         <v>10145.040000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
@@ -5664,7 +5825,7 @@
         <v>6902.6670000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2500</v>
       </c>
@@ -5699,7 +5860,7 @@
         <v>7826.0219999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>201</v>
       </c>
@@ -5734,7 +5895,7 @@
         <v>1352.221</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>202</v>
       </c>
@@ -5769,7 +5930,7 @@
         <v>752.98569999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>300</v>
       </c>
@@ -5804,7 +5965,7 @@
         <v>3699.3690000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>276</v>
       </c>
@@ -5839,7 +6000,7 @@
         <v>2414.9989999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>277</v>
       </c>
@@ -5874,7 +6035,7 @@
         <v>6429.7439999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>278</v>
       </c>
@@ -5909,7 +6070,7 @@
         <v>7084.0240000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>279</v>
       </c>
@@ -5944,7 +6105,7 @@
         <v>2893.7539999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>280</v>
       </c>
@@ -5979,7 +6140,7 @@
         <v>18074</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>281</v>
       </c>
@@ -6014,7 +6175,7 @@
         <v>2850.9270000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>290</v>
       </c>
@@ -6049,7 +6210,7 @@
         <v>2518.7080000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>291</v>
       </c>
@@ -6084,7 +6245,7 @@
         <v>3594.6149999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>292</v>
       </c>
@@ -6119,7 +6280,7 @@
         <v>4963.0550000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>293</v>
       </c>
@@ -6154,7 +6315,7 @@
         <v>3537.4349999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>294</v>
       </c>
@@ -6189,7 +6350,7 @@
         <v>3782.6550000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>297</v>
       </c>
@@ -6224,7 +6385,7 @@
         <v>14600.37</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>298</v>
       </c>
